--- a/APM files/141739658/141739658 IMPORT 4 Shell.xlsx
+++ b/APM files/141739658/141739658 IMPORT 4 Shell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141739658/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912608E5-616F-E84F-BABA-86F565B00AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B7092-9B1F-AC4E-98AA-981F7777B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26840" xr2:uid="{1A9A55E1-6AAB-41A4-909E-07C64B877054}"/>
   </bookViews>
@@ -837,7 +837,7 @@
   <dimension ref="A1:BJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
